--- a/ApplicationPerformance/applicationperformance/Testcase.xlsx
+++ b/ApplicationPerformance/applicationperformance/Testcase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="1140" windowWidth="29660" windowHeight="14200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3780" yWindow="3440" windowWidth="33060" windowHeight="14200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="launchtime" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -109,9 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emulator-5554</t>
-  </si>
-  <si>
     <t>执行monkey命令</t>
     <rPh sb="8" eb="9">
       <t>ming'l</t>
@@ -119,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emulator-5554</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否执行用例</t>
     <rPh sb="0" eb="1">
       <t>shi'f</t>
@@ -174,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取内存信息的搜索词</t>
     <rPh sb="0" eb="1">
       <t>huo'qu</t>
@@ -200,11 +189,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>127.0.0.1:5555</t>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
+    <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +587,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -634,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -654,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,10 +707,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -722,7 +725,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -730,16 +733,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -749,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -766,10 +769,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -777,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,6 +813,7 @@
     <col min="6" max="6" width="27.83203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -821,10 +827,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -839,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -847,17 +853,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>2</v>
@@ -865,8 +869,11 @@
       <c r="H2" s="1">
         <v>5</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -880,10 +887,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -891,10 +900,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ApplicationPerformance/applicationperformance/Testcase.xlsx
+++ b/ApplicationPerformance/applicationperformance/Testcase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/PycharmProjects/ApplicationPerformance/applicationperformance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Software/Work/Eclipse/Git_Blog_automation/ApplicationPerformance/applicationperformance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3440" windowWidth="33060" windowHeight="14200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-2120" yWindow="2200" windowWidth="33060" windowHeight="14200" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="launchtime" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>用例编号</t>
     <rPh sb="0" eb="1">
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adb shell monkey -p com.ushaqi.zhuishushenqi --ignore-crashes --ignore-timeouts --ignore-native-crashes --pct-touch 30 -s 1 -v -v --throttle 200 1000 &gt;monkeylog.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.ushaqi.zhuishushenqi/com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +204,29 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi/com.ushaqi.zhuishushenqi.ui.SplashActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ushaqi.zhuishushenqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuishushenqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb shell monkey -p com.ushaqi.zhuishushenqi --ignore-crashes --ignore-timeouts --ignore-native-crashes --pct-touch 30 -s 1 -v -v --throttle 200 1000 &gt;monkeylog.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集内存值间隔时间(秒)</t>
+    <rPh sb="2" eb="3">
+      <t>nei'c</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +606,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -637,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -657,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -679,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -733,16 +752,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -752,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -769,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1">
@@ -782,10 +801,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -799,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -839,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -853,13 +872,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -870,10 +889,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -887,11 +906,11 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -900,10 +919,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
